--- a/report/centros_de_custo.xlsx
+++ b/report/centros_de_custo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -726,660 +726,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>

--- a/report/centros_de_custo.xlsx
+++ b/report/centros_de_custo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t xml:space="preserve">CF José Mauro Ceratti Lopes - GDRES</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t xml:space="preserve">US Rincão - GDGCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Rubem Berta - GDNEB</t>
   </si>
   <si>
     <t xml:space="preserve">US Safira Nova - GDLN</t>
@@ -735,7 +738,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
